--- a/economics/lab2/main.xlsx
+++ b/economics/lab2/main.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitHub\bmstu-7th-term\economics\lab2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="15720" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Линейный_метод" sheetId="2" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="Экономия налога на прибыль" sheetId="5" r:id="rId4"/>
     <sheet name="Собственные источники" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,17 +87,17 @@
     <t>Собственные источники</t>
   </si>
   <si>
-    <t>Годовая сумма амортизации при нелинейном методе, тыс.руб.2</t>
+    <t>Годовая сумма амортизации при линейном методе, тыс.руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,16 +123,16 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,7 +273,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -300,38 +305,38 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="38">
     <dxf>
       <font>
         <b val="0"/>
@@ -348,7 +353,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -366,6 +371,12 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -384,12 +395,6 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -408,20 +413,31 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -594,6 +610,37 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -688,6 +735,45 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -716,19 +802,6 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -800,32 +873,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -854,28 +901,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="C1:I9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="16" headerRowCellStyle="Обычный" dataCellStyle="Обычный">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="C1:I9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="C1:I9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="№ года амотризации" dataDxfId="23" dataCellStyle="Обычный">
+    <tableColumn id="1" name="№ года амотризации" dataDxfId="35">
       <calculatedColumnFormula>C1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Годовая сумма амортизации, тыс. руб" dataDxfId="22" dataCellStyle="Обычный">
+    <tableColumn id="2" name="Годовая сумма амортизации, тыс. руб" dataDxfId="34">
       <calculatedColumnFormula>$B$8/100%*$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Дисконтированный амортизационный фонд, тыс. руб." dataDxfId="21" dataCellStyle="Обычный">
+    <tableColumn id="3" name="Дисконтированный амортизационный фонд, тыс. руб." dataDxfId="33">
       <calculatedColumnFormula>D2/(1+$B$4/100)^C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Остаточная стоимость, тыс. руб." dataDxfId="20" dataCellStyle="Обычный">
+    <tableColumn id="4" name="Остаточная стоимость, тыс. руб." dataDxfId="32">
       <calculatedColumnFormula>F1-D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Среднегодовая остаточная стоимость, тыс. руб." dataDxfId="19" dataCellStyle="Обычный">
+    <tableColumn id="5" name="Среднегодовая остаточная стоимость, тыс. руб." dataDxfId="31">
       <calculatedColumnFormula>(F1+F2)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Налог на имущество, тыс. руб." dataDxfId="18" dataCellStyle="Обычный">
+    <tableColumn id="6" name="Налог на имущество, тыс. руб." dataDxfId="30">
       <calculatedColumnFormula>$B$7/100*G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Дисконтированный налог на имущество, тыс. руб." dataDxfId="17" dataCellStyle="Обычный">
+    <tableColumn id="7" name="Дисконтированный налог на имущество, тыс. руб." dataDxfId="29">
       <calculatedColumnFormula>H2/(1+$B$4/100)^C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -884,28 +931,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="C1:I9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" headerRowCellStyle="Обычный" dataCellStyle="Обычный">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="C1:I9" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="C1:I9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="№ года амотризации" dataDxfId="31" dataCellStyle="Обычный">
+    <tableColumn id="1" name="№ года амотризации" dataDxfId="26">
       <calculatedColumnFormula>C1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Годовая сумма амортизации, тыс. руб" dataDxfId="30" dataCellStyle="Обычный">
+    <tableColumn id="2" name="Годовая сумма амортизации, тыс. руб" dataDxfId="25">
       <calculatedColumnFormula>2*$B$8/100%*C10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Дисконтированный амортизационный фонд, тыс. руб." dataDxfId="29" dataCellStyle="Обычный">
+    <tableColumn id="3" name="Дисконтированный амортизационный фонд, тыс. руб." dataDxfId="24">
       <calculatedColumnFormula>D2/(1+$B$4/100)^C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Остаточная стоимость, тыс. руб." dataDxfId="28" dataCellStyle="Обычный">
+    <tableColumn id="4" name="Остаточная стоимость, тыс. руб." dataDxfId="23">
       <calculatedColumnFormula>F1-D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Среднегодовая остаточная стоимость, тыс. руб." dataDxfId="27" dataCellStyle="Обычный">
+    <tableColumn id="5" name="Среднегодовая остаточная стоимость, тыс. руб." dataDxfId="22">
       <calculatedColumnFormula>(F1+F2)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Налог на имущество, тыс. руб." dataDxfId="26" dataCellStyle="Обычный">
+    <tableColumn id="6" name="Налог на имущество, тыс. руб." dataDxfId="21">
       <calculatedColumnFormula>$B$7/100*G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Дисконтированный налог на имущество, тыс. руб." dataDxfId="25" dataCellStyle="Обычный">
+    <tableColumn id="7" name="Дисконтированный налог на имущество, тыс. руб." dataDxfId="20">
       <calculatedColumnFormula>H2/(1+$B$4/100)^C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -914,31 +961,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="C1:J9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="15" headerRowCellStyle="Обычный">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="C1:J9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="C1:J9"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="№ года амотризации" dataDxfId="14" dataCellStyle="Обычный">
+    <tableColumn id="1" name="№ года амотризации" dataDxfId="16">
       <calculatedColumnFormula>C1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Годовая норма амортизации, %" dataDxfId="13" dataCellStyle="Финансовый">
+    <tableColumn id="2" name="Годовая норма амортизации, %" dataDxfId="15">
       <calculatedColumnFormula>1/8*100%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Годовая сумма амортизации, тыс. руб" dataDxfId="12">
+    <tableColumn id="3" name="Годовая сумма амортизации, тыс. руб" dataDxfId="14">
       <calculatedColumnFormula>($B$2)/($B$3*($B$3+1)/2)*($B$3-C2+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Дисконтированный амортизационный фонд, тыс. руб." dataDxfId="11">
+    <tableColumn id="4" name="Дисконтированный амортизационный фонд, тыс. руб." dataDxfId="13">
       <calculatedColumnFormula>E2/(1+$B$4/100)^C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Остаточная стоимость, тыс. руб." dataDxfId="10">
+    <tableColumn id="5" name="Остаточная стоимость, тыс. руб." dataDxfId="12">
       <calculatedColumnFormula>G1-E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Среднегодовая остаточная стоимость, тыс. руб." dataDxfId="9">
+    <tableColumn id="6" name="Среднегодовая остаточная стоимость, тыс. руб." dataDxfId="11">
       <calculatedColumnFormula>(G1+G2)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Налог на имущество, тыс. руб." dataDxfId="8">
+    <tableColumn id="7" name="Налог на имущество, тыс. руб." dataDxfId="10">
       <calculatedColumnFormula>$B$7/100*H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Дисконтированный налог на имущество, тыс. руб." dataDxfId="7">
+    <tableColumn id="8" name="Дисконтированный налог на имущество, тыс. руб." dataDxfId="9">
       <calculatedColumnFormula>I2/(1+$B$4/100)^C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -947,23 +994,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:E9" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:E10" totalsRowCount="1" headerRowDxfId="8">
+  <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
     <tableColumn id="1" name=" № года аморт. периода">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Годовая сумма амортизации при нелинейном методе, тыс.руб." dataDxfId="4">
+    <tableColumn id="2" name="Годовая сумма амортизации при линейном методе, тыс.руб." totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="3">
       <calculatedColumnFormula>Линейный_метод!D2</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Таблица4[Годовая сумма амортизации при линейном методе, тыс.руб.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Годовая сумма амортизации при нелинейном методе, тыс.руб.2" dataDxfId="3">
+    <tableColumn id="3" name="Годовая сумма амортизации при нелинейном методе, тыс.руб." totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
       <calculatedColumnFormula>Метод_уменьшаемого_остатка!D2</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Таблица4[Годовая сумма амортизации при нелинейном методе, тыс.руб.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Экономия налога на прибыль, тыс.руб." dataDxfId="2">
+    <tableColumn id="4" name="Экономия налога на прибыль, тыс.руб." totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
       <calculatedColumnFormula>(C2-B2)*0.2</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Таблица4[Экономия налога на прибыль, тыс.руб.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Экономия налога на прибыль дисконтированная, тыс.руб. " dataDxfId="1">
+    <tableColumn id="5" name="Экономия налога на прибыль дисконтированная, тыс.руб. " totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
       <calculatedColumnFormula>D2/(1+Линейный_метод!$B$4/100)^A2</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Таблица4[Экономия налога на прибыль дисконтированная, тыс.руб. ])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1225,7 +1276,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1235,264 +1286,264 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I9" sqref="C1:I9"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="30.75" customWidth="1"/>
-    <col min="5" max="5" width="42.125" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="7" width="37.875" customWidth="1"/>
-    <col min="8" max="8" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="39.625" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="42.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="37.88671875" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" customWidth="1"/>
+    <col min="9" max="9" width="39.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25.5">
+    <row r="2" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>2460</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>1</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <f>$B$8/100%*$B$2</f>
         <v>307.5</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <f t="shared" ref="E2:E9" si="0">D2/(1+$B$4/100)^C2</f>
         <v>269.73684210526312</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <f>$B$2-D2</f>
         <v>2152.5</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <f>($B$2+F2)/2</f>
         <v>2306.25</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <f>$B$7/100*G2</f>
         <v>50.737500000000004</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <f t="shared" ref="I2:I9" si="1">H2/(1+$B$4/100)^C2</f>
         <v>44.506578947368418</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25.5">
+    <row r="3" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8">
         <v>8</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <f t="shared" ref="D3:D9" si="2">$B$8/100%*$B$2</f>
         <v>307.5</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <f t="shared" si="0"/>
         <v>236.61126500461674</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <f>F2-D3</f>
         <v>1845</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <f>(F2+F3)/2</f>
         <v>1998.75</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <f t="shared" ref="H3:H9" si="3">$B$7/100*G3</f>
         <v>43.972500000000004</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <f t="shared" si="1"/>
         <v>33.835410895660196</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="8">
         <v>14</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f t="shared" ref="C4:C9" si="4">C3+1</f>
         <v>3</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <f t="shared" si="2"/>
         <v>307.5</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <f t="shared" si="0"/>
         <v>207.55374123211993</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <f t="shared" ref="F4:F9" si="5">F3-D4</f>
         <v>1537.5</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f t="shared" ref="G4:G9" si="6">(F3+F4)/2</f>
         <v>1691.25</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <f t="shared" si="3"/>
         <v>37.207500000000003</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <f t="shared" si="1"/>
         <v>25.114002689086515</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="25.5">
+    <row r="5" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8">
         <v>500000</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <f t="shared" si="2"/>
         <v>307.5</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>182.06468529133326</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <f t="shared" si="5"/>
         <v>1230</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <f t="shared" si="6"/>
         <v>1383.75</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <f t="shared" si="3"/>
         <v>30.442500000000003</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <f t="shared" si="1"/>
         <v>18.024403843841995</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5">
+    <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="8">
         <v>11</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <f t="shared" si="2"/>
         <v>307.5</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>159.70586429064318</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <f t="shared" si="5"/>
         <v>922.5</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <f t="shared" si="6"/>
         <v>1076.25</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <f t="shared" si="3"/>
         <v>23.677500000000002</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>12.297351550379526</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <f t="shared" si="2"/>
         <v>307.5</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>140.09286341284488</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <f t="shared" si="5"/>
         <v>615</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <f t="shared" si="6"/>
         <v>768.75</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <f t="shared" si="3"/>
         <v>16.912500000000001</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <f t="shared" si="1"/>
         <v>7.7051074877064698</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -1500,63 +1551,63 @@
         <f>1/$B$3*100%</f>
         <v>0.125</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <f t="shared" si="2"/>
         <v>307.5</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>122.88847667793409</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f t="shared" si="5"/>
         <v>307.5</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <f t="shared" si="6"/>
         <v>461.25</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <f t="shared" si="3"/>
         <v>10.147500000000001</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <f t="shared" si="1"/>
         <v>4.0553197303718251</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <f t="shared" si="2"/>
         <v>307.5</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>107.79690936660884</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <f t="shared" si="6"/>
         <v>153.75</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <f t="shared" si="3"/>
         <v>3.3825000000000003</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <f t="shared" si="1"/>
         <v>1.1857660030326973</v>
       </c>
@@ -1574,264 +1625,264 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I9" sqref="C1:I9"/>
+    <sheetView topLeftCell="E1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="30.75" customWidth="1"/>
-    <col min="5" max="5" width="42.125" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="7" width="37.875" customWidth="1"/>
-    <col min="8" max="8" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="39.625" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="42.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="37.88671875" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" customWidth="1"/>
+    <col min="9" max="9" width="39.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25.5">
+    <row r="2" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>2460</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <f>2*$B$8/100%*$B$2</f>
         <v>615</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <f t="shared" ref="E2:E9" si="0">D2/(1+$B$4/100)^C2</f>
         <v>539.47368421052624</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <f>$B$2-D2</f>
         <v>1845</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <f>($B$2+F2)/2</f>
         <v>2152.5</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <f>$B$7/100*G2</f>
         <v>47.355000000000004</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <f t="shared" ref="I2:I9" si="1">H2/(1+$B$4/100)^C2</f>
         <v>41.539473684210527</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25.5">
+    <row r="3" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>8</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <f>2*$B$8/100%*C11</f>
         <v>461.25</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <f t="shared" si="0"/>
         <v>354.91689750692512</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <f>F2-D3</f>
         <v>1383.75</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <f>(F2+F3)/2</f>
         <v>1614.375</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <f t="shared" ref="H3:H9" si="2">$B$7/100*G3</f>
         <v>35.516250000000007</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <f t="shared" si="1"/>
         <v>27.32860110803324</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>14</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <f t="shared" ref="C4:C9" si="3">C3+1</f>
         <v>3</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <f t="shared" ref="D4:D8" si="4">2*$B$8/100%*C12</f>
         <v>307.5</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <f t="shared" si="0"/>
         <v>207.55374123211993</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <f t="shared" ref="F4:F9" si="5">F3-D4</f>
         <v>1076.25</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f t="shared" ref="G4:G9" si="6">(F3+F4)/2</f>
         <v>1230</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <f t="shared" si="2"/>
         <v>27.060000000000002</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <f t="shared" si="1"/>
         <v>18.264729228426557</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="25.5">
+    <row r="5" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>500000</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <f t="shared" si="4"/>
         <v>192.1875</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>113.79042830708327</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <f t="shared" si="5"/>
         <v>884.0625</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <f t="shared" si="6"/>
         <v>980.15625</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <f t="shared" si="2"/>
         <v>21.563437500000003</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <f t="shared" si="1"/>
         <v>12.767286056054745</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5">
+    <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <f t="shared" si="4"/>
         <v>115.3125</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>59.889699108991195</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <f t="shared" si="5"/>
         <v>768.75</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <f t="shared" si="6"/>
         <v>826.40625</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <f t="shared" si="2"/>
         <v>18.180937500000002</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>9.4426092261842793</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25.5">
+    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <f t="shared" si="4"/>
         <v>67.265625</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>30.645313871559818</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <f t="shared" si="5"/>
         <v>701.484375</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <f t="shared" si="6"/>
         <v>735.1171875</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <f t="shared" si="2"/>
         <v>16.172578125000001</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <f t="shared" si="1"/>
         <v>7.3680090351193117</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1839,117 +1890,129 @@
         <f>1/$B$3*100%</f>
         <v>0.125</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <f t="shared" si="4"/>
         <v>38.4375</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>15.361059584741762</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f t="shared" si="5"/>
         <v>663.046875</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <f t="shared" si="6"/>
         <v>682.265625</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <f t="shared" si="2"/>
         <v>15.009843750000002</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <f t="shared" si="1"/>
         <v>5.9984937678416586</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <f>2*$B$8/100%*C17</f>
         <v>21.62109375</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>7.5794701898396841</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <f t="shared" si="5"/>
         <v>641.42578125</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <f t="shared" si="6"/>
         <v>652.236328125</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <f t="shared" si="2"/>
         <v>14.349199218750002</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <f t="shared" si="1"/>
         <v>5.0302417159902708</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="C11" s="15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="24">
         <f>B2-D2</f>
         <v>1845</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="C12" s="15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="24">
         <f>C11-D2</f>
         <v>1230</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="C13" s="15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="24">
         <f>C12-D3</f>
         <v>768.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="C14" s="15">
+      <c r="H13">
+        <f>SUM(Таблица2[Налог на имущество, тыс. руб.])</f>
+        <v>195.20724609375003</v>
+      </c>
+      <c r="I13">
+        <f>SUM(Таблица2[Дисконтированный налог на имущество, тыс. руб.])</f>
+        <v>127.73944382186058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="24">
         <f t="shared" ref="C14:C19" si="7">C13-D4</f>
         <v>461.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="C15" s="15">
+      <c r="E14">
+        <f>SUM(Таблица2[Дисконтированный амортизационный фонд, тыс. руб.])</f>
+        <v>1329.210294011787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="24">
         <f t="shared" si="7"/>
         <v>269.0625</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="C16" s="15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="24">
         <f t="shared" si="7"/>
         <v>153.75</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="24">
         <f t="shared" si="7"/>
         <v>86.484375</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="15">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="24">
         <f t="shared" si="7"/>
         <v>48.046875</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="15">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="24">
         <f t="shared" si="7"/>
         <v>26.42578125</v>
       </c>
@@ -1965,358 +2028,374 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="16" customWidth="1"/>
-    <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="17.875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="16" customWidth="1"/>
-    <col min="6" max="6" width="42.125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="26.625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="37.875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="16" customWidth="1"/>
-    <col min="10" max="10" width="39.625" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="23.77734375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9" style="15"/>
+    <col min="3" max="3" width="17.88671875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="25.5">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>2460</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <f>1/8*100%</f>
         <v>0.125</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <f t="shared" ref="E2:E8" si="0">($B$2)/($B$3*($B$3+1)/2)*($B$3-C2+1)</f>
         <v>546.66666666666663</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <f>E2/(1+$B$4/100)^C2</f>
         <v>479.53216374268999</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <f>$B$2-E2</f>
         <v>1913.3333333333335</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <f>($B$2+G2)/2</f>
         <v>2186.666666666667</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <f>$B$7/100*H2</f>
         <v>48.106666666666676</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <f>I2/(1+$B$4/100)^C2</f>
         <v>42.198830409356731</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25.5">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>8</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <f t="shared" ref="D3:D9" si="1">1/8*100%</f>
         <v>0.125</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <f t="shared" si="0"/>
         <v>478.33333333333331</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F9" si="2">E3/(1+$B$4/100)^C3</f>
         <v>368.06196778495939</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <f>G2-E3</f>
         <v>1435.0000000000002</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <f>(G2+G3)/2</f>
         <v>1674.166666666667</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <f t="shared" ref="I3:I9" si="3">$B$7/100*H3</f>
         <v>36.831666666666678</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <f t="shared" ref="J3:J9" si="4">I3/(1+$B$4/100)^C3</f>
         <v>28.34077151944188</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>14</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <f t="shared" ref="C4:C9" si="5">C3+1</f>
         <v>3</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <f t="shared" si="2"/>
         <v>276.73832164282658</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <f t="shared" ref="G4:G9" si="6">G3-E4</f>
         <v>1025.0000000000002</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f t="shared" ref="H4:H9" si="7">(G3+G4)/2</f>
         <v>1230.0000000000002</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <f t="shared" si="3"/>
         <v>27.060000000000009</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="19">
         <f t="shared" si="4"/>
         <v>18.26472922842656</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>500000</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
         <v>341.66666666666663</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <f t="shared" si="2"/>
         <v>202.29409476814803</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <f t="shared" si="6"/>
         <v>683.3333333333336</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f t="shared" si="7"/>
         <v>854.16666666666697</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <f t="shared" si="3"/>
         <v>18.791666666666675</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <f t="shared" si="4"/>
         <v>11.126175212248148</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>11</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>273.33333333333331</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f t="shared" si="2"/>
         <v>141.9607682583495</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <f t="shared" si="6"/>
         <v>410.00000000000028</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <f t="shared" si="7"/>
         <v>546.66666666666697</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <f t="shared" si="3"/>
         <v>12.026666666666674</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <f t="shared" si="4"/>
         <v>6.2462738033673819</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <f t="shared" si="2"/>
         <v>93.395242275229919</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <f t="shared" si="6"/>
         <v>205.00000000000028</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <f t="shared" si="7"/>
         <v>307.50000000000028</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f t="shared" si="3"/>
         <v>6.7650000000000068</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <f t="shared" si="4"/>
         <v>3.0820429950825905</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="C8" s="16">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="15">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>136.66666666666666</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="2"/>
         <v>54.617100745748481</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="6"/>
         <v>68.333333333333627</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" si="7"/>
         <v>136.66666666666697</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="3"/>
         <v>3.0066666666666735</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <f t="shared" si="4"/>
         <v>1.2015762164064694</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.5" thickBot="1">
-      <c r="C9" s="16">
+    <row r="9" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="15">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <f>($B$2)/($B$3*($B$3+1)/2)*($B$3-C9+1)</f>
         <v>68.333333333333329</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <f t="shared" si="2"/>
         <v>23.954868748135297</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <f t="shared" si="6"/>
         <v>2.9842794901924208E-13</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f t="shared" si="7"/>
         <v>34.166666666666963</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <f t="shared" si="3"/>
         <v>0.75166666666667326</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <f t="shared" si="4"/>
         <v>0.26350355622949057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="15">
+        <f>SUM(Таблица3[Налог на имущество, тыс. руб.])</f>
+        <v>153.34000000000006</v>
+      </c>
+      <c r="J12" s="15">
+        <f>SUM(Таблица3[Дисконтированный налог на имущество, тыс. руб.])</f>
+        <v>110.72390294055926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="15">
+        <f>SUM(Таблица3[Дисконтированный амортизационный фонд, тыс. руб.])</f>
+        <v>1640.5545279660873</v>
       </c>
     </row>
   </sheetData>
@@ -2329,30 +2408,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="46.75" customWidth="1"/>
-    <col min="3" max="3" width="47.625" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="53.25" customHeight="1">
+    <row r="1" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>17</v>
@@ -2363,7 +2442,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2384,7 +2463,7 @@
         <v>53.947368421052623</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -2406,7 +2485,7 @@
         <v>23.661126500461673</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A9" si="1">A3+1</f>
         <v>3</v>
@@ -2428,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2450,7 +2529,7 @@
         <v>-13.654851396849994</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2472,7 +2551,7 @@
         <v>-19.963233036330397</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2494,7 +2573,7 @@
         <v>-21.889509908257015</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2516,7 +2595,7 @@
         <v>-21.505483418638466</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2536,6 +2615,24 @@
       <c r="E9" s="14">
         <f>D9/(1+Линейный_метод!$B$4/100)^A9</f>
         <v>-20.043487835353829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="13">
+        <f>SUM(Таблица4[Годовая сумма амортизации при линейном методе, тыс.руб.])</f>
+        <v>2460</v>
+      </c>
+      <c r="C10" s="13">
+        <f>SUM(Таблица4[Годовая сумма амортизации при нелинейном методе, тыс.руб.])</f>
+        <v>1818.57421875</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(Таблица4[Экономия налога на прибыль, тыс.руб.])</f>
+        <v>-128.28515625</v>
+      </c>
+      <c r="E10" s="14">
+        <f>SUM(Таблица4[Экономия налога на прибыль дисконтированная, тыс.руб. ])</f>
+        <v>-19.448070673915403</v>
       </c>
     </row>
   </sheetData>
@@ -2550,16 +2647,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
